--- a/final_results/1/github/github_ci_statistics.xlsx
+++ b/final_results/1/github/github_ci_statistics.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3.42</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>438</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4168</v>
+        <v>60</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>539</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
-        <v>9.52</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4">
@@ -522,23 +522,21 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_results/1/github/github_ci_statistics.xlsx
+++ b/final_results/1/github/github_ci_statistics.xlsx
@@ -472,19 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>129</v>
+      </c>
+      <c r="C2" t="n">
+        <v>283</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>2.19</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>439</v>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>4071</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>519</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9.27</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -522,21 +522,23 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>11.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/final_results/1/github/github_ci_statistics.xlsx
+++ b/final_results/1/github/github_ci_statistics.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C3" t="n">
-        <v>4071</v>
+        <v>4127</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F3" t="n">
-        <v>9.27</v>
+        <v>9.25</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>

--- a/final_results/1/github/github_ci_statistics.xlsx
+++ b/final_results/1/github/github_ci_statistics.xlsx
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C3" t="n">
-        <v>4145</v>
+        <v>4213</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>521</v>
+        <v>569</v>
       </c>
       <c r="F3" t="n">
-        <v>9.27</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="G3" t="n">
         <v>4</v>
